--- a/results/I3_N5_M2_T30_C150_DepLowerLeft_s0_P6_res.xlsx
+++ b/results/I3_N5_M2_T30_C150_DepLowerLeft_s0_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1860.951971450469</v>
+        <v>462.9010767742673</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01200008392333984</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.99399897576404</v>
+        <v>42.9010767742673</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.45967556447408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.28764803918328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1328.299999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>492.8300000000001</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -824,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -907,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.20851569551316</v>
+        <v>20.63858450874014</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.09486359553446</v>
+        <v>19.09486359553444</v>
       </c>
     </row>
     <row r="5">
@@ -931,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.427798817200209</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>15.91036991521413</v>
       </c>
     </row>
     <row r="8">
@@ -955,7 +900,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.75248347305559</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,104 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1196,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>148.2050000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -1207,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>145.8200000000007</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -1218,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>149.1050000000006</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -1229,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>152.8100000000007</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
@@ -1240,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>151.2100000000007</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
@@ -1251,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>254.4650000000002</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
@@ -1262,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>255.6850000000009</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -1273,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>256.8300000000008</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
@@ -1284,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>264.7700000000001</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
@@ -1295,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>262.1600000000001</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17">
@@ -1306,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>93.02999999999935</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1317,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>87.77499999999934</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -1328,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>97.16999999999935</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -1339,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>85.99499999999935</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1350,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>97.73999999999934</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -1361,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>84.08</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1372,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.84</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -1383,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.25999999999999</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -1394,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>81.81999999999999</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -1405,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>80.22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -1416,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>163.2599999999991</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -1427,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>168.005</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
@@ -1438,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>183.4449999999991</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
@@ -1449,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>173.4</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31">
@@ -1460,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>182.13</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
@@ -1471,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>254.4649999999996</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33">
@@ -1482,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>255.6850000000006</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34">
@@ -1493,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>256.8300000000005</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35">
@@ -1504,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>264.7699999999994</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36">
@@ -1515,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>262.1599999999994</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37">
@@ -1526,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>163.2599999999991</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
@@ -1537,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>168.005</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39">
@@ -1548,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>183.4449999999991</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
@@ -1559,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>173.4</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41">
@@ -1570,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>182.13</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>104.4649999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1628,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>105.6850000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1639,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>106.8300000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1650,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>114.7699999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1661,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>112.1599999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1672,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>13.25999999999915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1683,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>18.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1694,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>33.44499999999915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1705,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1716,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>32.13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1763,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1774,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>6.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1785,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1796,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>5.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1807,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1818,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1829,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1840,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1851,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1862,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1873,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.515</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1884,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>4.74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1895,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>2.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1906,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1917,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.04</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1928,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>24.435</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -1939,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.08</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1950,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.385</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -1961,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>21.925</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -1972,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>20.27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1983,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -1994,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -2005,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -2016,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -2027,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2041,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2066,138 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>4</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
